--- a/eventAttendance.xlsx
+++ b/eventAttendance.xlsx
@@ -508,28 +508,38 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="3">
